--- a/pakistan-vaccines/pakistan_vaccines_databook_v1.xlsx
+++ b/pakistan-vaccines/pakistan_vaccines_databook_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/pakistan-vaccines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CACF97-4A39-7A4C-AC55-938311B4F540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC837185-B798-E14A-B7F7-144D3856512A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="20920" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,6 +323,270 @@
         </r>
       </text>
     </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{DFC0588B-332D-334E-AAF0-159154D4990C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{097D155B-59D1-4341-94CA-BD0422782516}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{9B3C02C6-0146-CE42-A4E1-EC6B2F629745}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{3A44A444-3E32-5B46-93CC-C87855036D34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{F33555F0-E9CF-D64C-97CC-E13F53E66113}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{BE3FA1E9-6B66-D44D-965D-7E57904323F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{51D1E396-AA4A-7D49-A0E4-643D57494026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{769F2C25-53EA-5E4E-B61A-4DA260DD7FAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E31" authorId="0" shapeId="0" xr:uid="{ECD043AC-ADA1-5344-8451-2EE63F921D14}">
       <text>
         <r>
@@ -452,6 +716,138 @@
             <family val="2"/>
           </rPr>
           <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{EEDB00EF-EF1D-C645-95EA-1BB4E45EC059}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://knoema.com/atlas/Pakistan/topics/Health/Health-Status/Under-5-mortality-rate#:~:targetText=Pakistan%20%2D%20Under%2D5%20mortality%20rate&amp;targetText=In%202018%2C%20under%2D5%20mortality,thousand%20live%20births%20in%202018.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{499F0B3F-2077-7E42-9F6C-867E54E46D77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://knoema.com/atlas/Pakistan/topics/Health/Health-Status/Under-5-mortality-rate#:~:targetText=Pakistan%20%2D%20Under%2D5%20mortality%20rate&amp;targetText=In%202018%2C%20under%2D5%20mortality,thousand%20live%20births%20in%202018.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{CABD16EB-5F4E-9745-9164-F2AA5E67A2AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://knoema.com/atlas/Pakistan/topics/Health/Health-Status/Under-5-mortality-rate#:~:targetText=Pakistan%20%2D%20Under%2D5%20mortality%20rate&amp;targetText=In%202018%2C%20under%2D5%20mortality,thousand%20live%20births%20in%202018.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{EB61A27B-92D5-4C45-832D-1C3C3C1BF869}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://knoema.com/atlas/Pakistan/topics/Health/Health-Status/Under-5-mortality-rate#:~:targetText=Pakistan%20%2D%20Under%2D5%20mortality%20rate&amp;targetText=In%202018%2C%20under%2D5%20mortality,thousand%20live%20births%20in%202018.</t>
         </r>
       </text>
     </comment>
@@ -579,9 +975,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +1047,12 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -753,7 +1155,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1371,7 +1773,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B40"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1902,7 +2304,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="13">
-        <f>69.3/1000</f>
+        <f t="shared" ref="E38:E40" si="0">69.3/1000</f>
         <v>6.93E-2</v>
       </c>
       <c r="F38" s="2"/>
@@ -1918,7 +2320,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="13">
-        <f>69.3/1000</f>
+        <f t="shared" si="0"/>
         <v>6.93E-2</v>
       </c>
       <c r="F39" s="2"/>
@@ -1934,7 +2336,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="13">
-        <f>69.3/1000</f>
+        <f t="shared" si="0"/>
         <v>6.93E-2</v>
       </c>
       <c r="F40" s="2"/>
